--- a/docs/inst_list_need.xlsx
+++ b/docs/inst_list_need.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,9 +927,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,80 +945,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1034,14 +966,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1322,33 +1254,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="2" customWidth="1"/>
-    <col min="7" max="13" width="5.625" style="3" customWidth="1"/>
-    <col min="14" max="21" width="5.625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="51.125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="50" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="2" customWidth="1"/>
+    <col min="8" max="14" width="5.6640625" style="3" customWidth="1"/>
+    <col min="15" max="22" width="5.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="51.109375" style="4" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="F1" s="11"/>
-      <c r="G1" s="10"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G1" s="11"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
@@ -1357,19 +1288,19 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="16" t="s">
+      <c r="W1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
-      <c r="N2" s="11"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -1378,9 +1309,9 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="11"/>
+      <c r="W2" s="11"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1391,164 +1322,165 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="11"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="11"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="11"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="19"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:23" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="18"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="L5" s="20"/>
       <c r="M5" s="19"/>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="20"/>
       <c r="P5" s="19"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="R5" s="20"/>
       <c r="S5" s="19"/>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="18"/>
+      <c r="U5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="18"/>
+      <c r="L6" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="20"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
       <c r="U6" s="19"/>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="18"/>
+      <c r="W6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1558,14 +1490,14 @@
       <c r="C8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
+      <c r="G8" s="2">
+        <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>38</v>
@@ -1574,20 +1506,20 @@
         <v>38</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
@@ -1609,11 +1541,11 @@
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1623,26 +1555,26 @@
       <c r="C9" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>29</v>
@@ -1650,8 +1582,8 @@
       <c r="M9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -1662,20 +1594,20 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="16"/>
+      <c r="W9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
@@ -1685,47 +1617,47 @@
       <c r="C10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
+      <c r="G10" s="2">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="16"/>
+      <c r="W10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1735,38 +1667,38 @@
       <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="L11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
@@ -1780,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -1796,32 +1728,32 @@
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="2">
         <v>0</v>
       </c>
@@ -1843,11 +1775,11 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1857,37 +1789,37 @@
       <c r="C13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="L13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -1904,11 +1836,11 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -1918,37 +1850,37 @@
       <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="L14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="16" t="s">
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="16"/>
       <c r="P14" s="16"/>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q14" s="16"/>
       <c r="R14" s="2">
         <v>0</v>
       </c>
@@ -1961,11 +1893,11 @@
       <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1975,41 +1907,41 @@
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="16"/>
       <c r="P15" s="16"/>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q15" s="16"/>
       <c r="R15" s="2">
         <v>0</v>
       </c>
@@ -2022,11 +1954,11 @@
       <c r="U15" s="2">
         <v>0</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
@@ -2036,42 +1968,42 @@
       <c r="C16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>38</v>
+      <c r="G16" s="2">
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="L16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="W16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -2081,44 +2013,44 @@
       <c r="C17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="L17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="16" t="s">
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-      <c r="W17" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -2128,44 +2060,44 @@
       <c r="C18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="L18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16" t="s">
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O18" s="16"/>
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="W18" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2175,48 +2107,48 @@
       <c r="C19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>22</v>
+      <c r="G19" s="2">
+        <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="W19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -2226,32 +2158,32 @@
       <c r="C20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="L20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
       <c r="O20" s="2">
         <v>0</v>
       </c>
@@ -2273,11 +2205,11 @@
       <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -2287,46 +2219,46 @@
       <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="L21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="16" t="s">
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="W21" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -2336,44 +2268,44 @@
       <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="L22" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="16" t="s">
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="W22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -2383,46 +2315,46 @@
       <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="L23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="16"/>
       <c r="P23" s="16"/>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="W23" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -2432,44 +2364,44 @@
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="L24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="16" t="s">
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
       <c r="U24" s="16"/>
-      <c r="W24" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -2479,54 +2411,54 @@
       <c r="C25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>22</v>
+      <c r="G25" s="2">
+        <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="L25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="16" t="s">
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="16"/>
       <c r="P25" s="16"/>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q25" s="16"/>
       <c r="R25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -2536,44 +2468,44 @@
       <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="L26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="16" t="s">
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O26" s="16"/>
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
       <c r="T26" s="16"/>
       <c r="U26" s="16"/>
-      <c r="W26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -2583,54 +2515,54 @@
       <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>37</v>
+      <c r="G27" s="2">
+        <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="L27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="16"/>
       <c r="P27" s="16"/>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q27" s="16"/>
       <c r="R27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2">
         <v>1</v>
       </c>
       <c r="T27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="W27" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -2640,54 +2572,54 @@
       <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="L28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="16" t="s">
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="16"/>
       <c r="P28" s="16"/>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q28" s="16"/>
       <c r="R28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>1</v>
       </c>
-      <c r="W28" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -2697,54 +2629,54 @@
       <c r="C29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="L29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="16" t="s">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="16"/>
       <c r="P29" s="16"/>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q29" s="16"/>
       <c r="R29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2">
         <v>1</v>
       </c>
       <c r="T29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2754,53 +2686,53 @@
       <c r="C30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="L30" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="16" t="s">
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="16"/>
       <c r="P30" s="16"/>
-      <c r="Q30" s="16" t="s">
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="16"/>
       <c r="S30" s="16"/>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
+      <c r="T30" s="16"/>
       <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="15" t="s">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="W30" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2810,53 +2742,53 @@
       <c r="C31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="L31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="16" t="s">
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O31" s="16"/>
       <c r="P31" s="16"/>
-      <c r="Q31" s="16" t="s">
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="16"/>
       <c r="S31" s="16"/>
-      <c r="T31" s="2">
-        <v>1</v>
-      </c>
+      <c r="T31" s="16"/>
       <c r="U31" s="2">
         <v>1</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="V31" s="2">
+        <v>1</v>
+      </c>
+      <c r="W31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="W31" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>86</v>
       </c>
@@ -2866,53 +2798,53 @@
       <c r="C32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="L32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="16" t="s">
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O32" s="16"/>
       <c r="P32" s="16"/>
-      <c r="Q32" s="16" t="s">
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R32" s="16"/>
       <c r="S32" s="16"/>
-      <c r="T32" s="2">
-        <v>1</v>
-      </c>
+      <c r="T32" s="16"/>
       <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="W32" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>180</v>
       </c>
@@ -2922,57 +2854,57 @@
       <c r="C33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="13">
-        <v>1</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="I33" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="J33" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="K33" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="14"/>
+      <c r="M33" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13" t="s">
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13">
-        <v>0</v>
-      </c>
+      <c r="Q33" s="13"/>
       <c r="R33" s="13">
         <v>0</v>
       </c>
       <c r="S33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="13">
         <v>0</v>
       </c>
-      <c r="V33" s="15" t="s">
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="W33" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
@@ -2982,50 +2914,50 @@
       <c r="C34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>33</v>
+      <c r="G34" s="2">
+        <v>1</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="L34" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="16" t="s">
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O34" s="16"/>
       <c r="P34" s="16"/>
-      <c r="Q34" s="16" t="s">
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="16"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="2">
-        <v>1</v>
-      </c>
+      <c r="T34" s="16"/>
       <c r="U34" s="2">
         <v>1</v>
       </c>
-      <c r="W34" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -3035,45 +2967,45 @@
       <c r="C35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="L35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17" t="s">
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
@@ -3083,48 +3015,48 @@
       <c r="C36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="16" t="s">
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O36" s="16"/>
       <c r="P36" s="16"/>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="16" t="s">
+      <c r="Q36" s="16"/>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S36" s="16"/>
       <c r="T36" s="16"/>
       <c r="U36" s="16"/>
-      <c r="W36" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V36" s="16"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>79</v>
       </c>
@@ -3134,20 +3066,20 @@
       <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>29</v>
@@ -3156,26 +3088,26 @@
         <v>29</v>
       </c>
       <c r="L37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="O37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
-      <c r="W37" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="V37" s="16"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -3185,124 +3117,124 @@
       <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>33</v>
+      <c r="G38" s="2">
+        <v>1</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="16" t="s">
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O38" s="16"/>
       <c r="P38" s="16"/>
-      <c r="Q38" s="16" t="s">
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="R38" s="16"/>
       <c r="S38" s="16"/>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
+      <c r="T38" s="16"/>
       <c r="U38" s="2">
-        <v>1</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="K39" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N26:U26"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="N24:U24"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N22:U22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:U36"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K16:U16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:U17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:U18"/>
-    <mergeCell ref="N19:U19"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N37:U37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:U35"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:U10"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:V10"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O37:V37"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:V35"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="S36:V36"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L16:V16"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:V17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:V18"/>
+    <mergeCell ref="O19:V19"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O26:V26"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="O24:V24"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O22:V22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="O4:V4"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
